--- a/data/stat probs/malachi flynn stat probs - condition.xlsx
+++ b/data/stat probs/malachi flynn stat probs - condition.xlsx
@@ -19,18 +19,18 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0 before 2023 full" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bos 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bos 2023 full" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 full" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cha 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cha 2023 full" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 full" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bos 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bos 2023 full" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 full" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cha 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cha 2023 full" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 full" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 full" sheetId="24" state="visible" r:id="rId24"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7 after 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7 after 2023 full" sheetId="26" state="visible" r:id="rId26"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wsh 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
@@ -591,28 +591,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1329,28 +1329,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -2067,22 +2067,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -2293,10 +2293,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -2311,10 +2311,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -2583,10 +2583,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -2601,10 +2601,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -2873,10 +2873,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -2891,10 +2891,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -3163,10 +3163,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -3181,10 +3181,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -3453,28 +3453,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -4191,28 +4191,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -4861,1482 +4861,6 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>75</v>
-      </c>
-      <c r="D3" t="n">
-        <v>25</v>
-      </c>
-      <c r="E3" t="n">
-        <v>62</v>
-      </c>
-      <c r="F3" t="n">
-        <v>38</v>
-      </c>
-      <c r="G3" t="n">
-        <v>75</v>
-      </c>
-      <c r="H3" t="n">
-        <v>25</v>
-      </c>
-      <c r="I3" t="n">
-        <v>62</v>
-      </c>
-      <c r="J3" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>75</v>
-      </c>
-      <c r="D4" t="n">
-        <v>25</v>
-      </c>
-      <c r="E4" t="n">
-        <v>38</v>
-      </c>
-      <c r="F4" t="n">
-        <v>62</v>
-      </c>
-      <c r="G4" t="n">
-        <v>50</v>
-      </c>
-      <c r="H4" t="n">
-        <v>50</v>
-      </c>
-      <c r="I4" t="n">
-        <v>25</v>
-      </c>
-      <c r="J4" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>62</v>
-      </c>
-      <c r="D5" t="n">
-        <v>38</v>
-      </c>
-      <c r="E5" t="n">
-        <v>25</v>
-      </c>
-      <c r="F5" t="n">
-        <v>75</v>
-      </c>
-      <c r="G5" t="n">
-        <v>38</v>
-      </c>
-      <c r="H5" t="n">
-        <v>62</v>
-      </c>
-      <c r="I5" t="n">
-        <v>12</v>
-      </c>
-      <c r="J5" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>62</v>
-      </c>
-      <c r="D6" t="n">
-        <v>38</v>
-      </c>
-      <c r="E6" t="n">
-        <v>25</v>
-      </c>
-      <c r="F6" t="n">
-        <v>75</v>
-      </c>
-      <c r="G6" t="n">
-        <v>25</v>
-      </c>
-      <c r="H6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I6" t="n">
-        <v>12</v>
-      </c>
-      <c r="J6" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>62</v>
-      </c>
-      <c r="D7" t="n">
-        <v>38</v>
-      </c>
-      <c r="E7" t="n">
-        <v>12</v>
-      </c>
-      <c r="F7" t="n">
-        <v>88</v>
-      </c>
-      <c r="G7" t="n">
-        <v>12</v>
-      </c>
-      <c r="H7" t="n">
-        <v>88</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D8" t="n">
-        <v>62</v>
-      </c>
-      <c r="E8" t="n">
-        <v>12</v>
-      </c>
-      <c r="F8" t="n">
-        <v>88</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>38</v>
-      </c>
-      <c r="D9" t="n">
-        <v>62</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>25</v>
-      </c>
-      <c r="D10" t="n">
-        <v>75</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" t="n">
-        <v>75</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>25</v>
-      </c>
-      <c r="D12" t="n">
-        <v>75</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>25</v>
-      </c>
-      <c r="D13" t="n">
-        <v>75</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>25</v>
-      </c>
-      <c r="D14" t="n">
-        <v>75</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>25</v>
-      </c>
-      <c r="D15" t="n">
-        <v>75</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>25</v>
-      </c>
-      <c r="D16" t="n">
-        <v>75</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>25</v>
-      </c>
-      <c r="D17" t="n">
-        <v>75</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>25</v>
-      </c>
-      <c r="D18" t="n">
-        <v>75</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>12</v>
-      </c>
-      <c r="D19" t="n">
-        <v>88</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>12</v>
-      </c>
-      <c r="D20" t="n">
-        <v>88</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>12</v>
-      </c>
-      <c r="D21" t="n">
-        <v>88</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>12</v>
-      </c>
-      <c r="D22" t="n">
-        <v>88</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>75</v>
-      </c>
-      <c r="D3" t="n">
-        <v>25</v>
-      </c>
-      <c r="E3" t="n">
-        <v>62</v>
-      </c>
-      <c r="F3" t="n">
-        <v>38</v>
-      </c>
-      <c r="G3" t="n">
-        <v>75</v>
-      </c>
-      <c r="H3" t="n">
-        <v>25</v>
-      </c>
-      <c r="I3" t="n">
-        <v>62</v>
-      </c>
-      <c r="J3" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>75</v>
-      </c>
-      <c r="D4" t="n">
-        <v>25</v>
-      </c>
-      <c r="E4" t="n">
-        <v>38</v>
-      </c>
-      <c r="F4" t="n">
-        <v>62</v>
-      </c>
-      <c r="G4" t="n">
-        <v>50</v>
-      </c>
-      <c r="H4" t="n">
-        <v>50</v>
-      </c>
-      <c r="I4" t="n">
-        <v>25</v>
-      </c>
-      <c r="J4" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>62</v>
-      </c>
-      <c r="D5" t="n">
-        <v>38</v>
-      </c>
-      <c r="E5" t="n">
-        <v>25</v>
-      </c>
-      <c r="F5" t="n">
-        <v>75</v>
-      </c>
-      <c r="G5" t="n">
-        <v>38</v>
-      </c>
-      <c r="H5" t="n">
-        <v>62</v>
-      </c>
-      <c r="I5" t="n">
-        <v>12</v>
-      </c>
-      <c r="J5" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>62</v>
-      </c>
-      <c r="D6" t="n">
-        <v>38</v>
-      </c>
-      <c r="E6" t="n">
-        <v>25</v>
-      </c>
-      <c r="F6" t="n">
-        <v>75</v>
-      </c>
-      <c r="G6" t="n">
-        <v>25</v>
-      </c>
-      <c r="H6" t="n">
-        <v>75</v>
-      </c>
-      <c r="I6" t="n">
-        <v>12</v>
-      </c>
-      <c r="J6" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>62</v>
-      </c>
-      <c r="D7" t="n">
-        <v>38</v>
-      </c>
-      <c r="E7" t="n">
-        <v>12</v>
-      </c>
-      <c r="F7" t="n">
-        <v>88</v>
-      </c>
-      <c r="G7" t="n">
-        <v>12</v>
-      </c>
-      <c r="H7" t="n">
-        <v>88</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D8" t="n">
-        <v>62</v>
-      </c>
-      <c r="E8" t="n">
-        <v>12</v>
-      </c>
-      <c r="F8" t="n">
-        <v>88</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>38</v>
-      </c>
-      <c r="D9" t="n">
-        <v>62</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>25</v>
-      </c>
-      <c r="D10" t="n">
-        <v>75</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" t="n">
-        <v>75</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>25</v>
-      </c>
-      <c r="D12" t="n">
-        <v>75</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>25</v>
-      </c>
-      <c r="D13" t="n">
-        <v>75</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>25</v>
-      </c>
-      <c r="D14" t="n">
-        <v>75</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>25</v>
-      </c>
-      <c r="D15" t="n">
-        <v>75</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>25</v>
-      </c>
-      <c r="D16" t="n">
-        <v>75</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>25</v>
-      </c>
-      <c r="D17" t="n">
-        <v>75</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>25</v>
-      </c>
-      <c r="D18" t="n">
-        <v>75</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>12</v>
-      </c>
-      <c r="D19" t="n">
-        <v>88</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>12</v>
-      </c>
-      <c r="D20" t="n">
-        <v>88</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>12</v>
-      </c>
-      <c r="D21" t="n">
-        <v>88</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>12</v>
-      </c>
-      <c r="D22" t="n">
-        <v>88</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6405,22 +4929,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -6562,7 +5086,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6631,22 +5155,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -6788,7 +5312,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6857,28 +5381,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -7302,7 +5826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7371,28 +5895,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -7816,7 +6340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7885,28 +6409,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -8066,6 +6590,490 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" t="n">
+        <v>50</v>
+      </c>
+      <c r="E2" t="n">
+        <v>50</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G2" t="n">
+        <v>33</v>
+      </c>
+      <c r="H2" t="n">
+        <v>67</v>
+      </c>
+      <c r="I2" t="n">
+        <v>83</v>
+      </c>
+      <c r="J2" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E3" t="n">
+        <v>50</v>
+      </c>
+      <c r="F3" t="n">
+        <v>50</v>
+      </c>
+      <c r="G3" t="n">
+        <v>67</v>
+      </c>
+      <c r="H3" t="n">
+        <v>33</v>
+      </c>
+      <c r="I3" t="n">
+        <v>17</v>
+      </c>
+      <c r="J3" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="n">
+        <v>50</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>100</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>50</v>
+      </c>
+      <c r="D6" t="n">
+        <v>50</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>83</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>75</v>
+      </c>
+      <c r="D2" t="n">
+        <v>25</v>
+      </c>
+      <c r="E2" t="n">
+        <v>50</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G2" t="n">
+        <v>50</v>
+      </c>
+      <c r="H2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I2" t="n">
+        <v>75</v>
+      </c>
+      <c r="J2" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>75</v>
+      </c>
+      <c r="E3" t="n">
+        <v>50</v>
+      </c>
+      <c r="F3" t="n">
+        <v>50</v>
+      </c>
+      <c r="G3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H3" t="n">
+        <v>50</v>
+      </c>
+      <c r="I3" t="n">
+        <v>25</v>
+      </c>
+      <c r="J3" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>75</v>
+      </c>
+      <c r="E4" t="n">
+        <v>25</v>
+      </c>
+      <c r="F4" t="n">
+        <v>75</v>
+      </c>
+      <c r="G4" t="n">
+        <v>50</v>
+      </c>
+      <c r="H4" t="n">
+        <v>50</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" t="n">
+        <v>50</v>
+      </c>
+      <c r="H5" t="n">
+        <v>50</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>75</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>100</v>
       </c>
     </row>
@@ -8143,28 +7151,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -8813,264 +7821,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>50</v>
-      </c>
-      <c r="D3" t="n">
-        <v>50</v>
-      </c>
-      <c r="E3" t="n">
-        <v>50</v>
-      </c>
-      <c r="F3" t="n">
-        <v>50</v>
-      </c>
-      <c r="G3" t="n">
-        <v>67</v>
-      </c>
-      <c r="H3" t="n">
-        <v>33</v>
-      </c>
-      <c r="I3" t="n">
-        <v>17</v>
-      </c>
-      <c r="J3" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>50</v>
-      </c>
-      <c r="D4" t="n">
-        <v>50</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>100</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>50</v>
-      </c>
-      <c r="D5" t="n">
-        <v>50</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>100</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" t="n">
-        <v>50</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>17</v>
-      </c>
-      <c r="D7" t="n">
-        <v>83</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9139,28 +7889,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -9296,233 +8046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>75</v>
-      </c>
-      <c r="E3" t="n">
-        <v>50</v>
-      </c>
-      <c r="F3" t="n">
-        <v>50</v>
-      </c>
-      <c r="G3" t="n">
-        <v>50</v>
-      </c>
-      <c r="H3" t="n">
-        <v>50</v>
-      </c>
-      <c r="I3" t="n">
-        <v>25</v>
-      </c>
-      <c r="J3" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>75</v>
-      </c>
-      <c r="E4" t="n">
-        <v>25</v>
-      </c>
-      <c r="F4" t="n">
-        <v>75</v>
-      </c>
-      <c r="G4" t="n">
-        <v>50</v>
-      </c>
-      <c r="H4" t="n">
-        <v>50</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>25</v>
-      </c>
-      <c r="D5" t="n">
-        <v>75</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>100</v>
-      </c>
-      <c r="G5" t="n">
-        <v>50</v>
-      </c>
-      <c r="H5" t="n">
-        <v>50</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>25</v>
-      </c>
-      <c r="D6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9591,28 +8115,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -9876,7 +8400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9945,28 +8469,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -10222,6 +8746,842 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D2" t="n">
+        <v>60</v>
+      </c>
+      <c r="E2" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2" t="n">
+        <v>80</v>
+      </c>
+      <c r="G2" t="n">
+        <v>60</v>
+      </c>
+      <c r="H2" t="n">
+        <v>40</v>
+      </c>
+      <c r="I2" t="n">
+        <v>40</v>
+      </c>
+      <c r="J2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>60</v>
+      </c>
+      <c r="D3" t="n">
+        <v>40</v>
+      </c>
+      <c r="E3" t="n">
+        <v>80</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G3" t="n">
+        <v>40</v>
+      </c>
+      <c r="H3" t="n">
+        <v>60</v>
+      </c>
+      <c r="I3" t="n">
+        <v>60</v>
+      </c>
+      <c r="J3" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>60</v>
+      </c>
+      <c r="D4" t="n">
+        <v>40</v>
+      </c>
+      <c r="E4" t="n">
+        <v>40</v>
+      </c>
+      <c r="F4" t="n">
+        <v>60</v>
+      </c>
+      <c r="G4" t="n">
+        <v>20</v>
+      </c>
+      <c r="H4" t="n">
+        <v>80</v>
+      </c>
+      <c r="I4" t="n">
+        <v>40</v>
+      </c>
+      <c r="J4" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>60</v>
+      </c>
+      <c r="D5" t="n">
+        <v>40</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" t="n">
+        <v>20</v>
+      </c>
+      <c r="H5" t="n">
+        <v>80</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>60</v>
+      </c>
+      <c r="D6" t="n">
+        <v>40</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>40</v>
+      </c>
+      <c r="D7" t="n">
+        <v>60</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>40</v>
+      </c>
+      <c r="D8" t="n">
+        <v>60</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>60</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>60</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>40</v>
+      </c>
+      <c r="D11" t="n">
+        <v>60</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D12" t="n">
+        <v>60</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D2" t="n">
+        <v>60</v>
+      </c>
+      <c r="E2" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2" t="n">
+        <v>80</v>
+      </c>
+      <c r="G2" t="n">
+        <v>60</v>
+      </c>
+      <c r="H2" t="n">
+        <v>40</v>
+      </c>
+      <c r="I2" t="n">
+        <v>40</v>
+      </c>
+      <c r="J2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>60</v>
+      </c>
+      <c r="D3" t="n">
+        <v>40</v>
+      </c>
+      <c r="E3" t="n">
+        <v>80</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G3" t="n">
+        <v>40</v>
+      </c>
+      <c r="H3" t="n">
+        <v>60</v>
+      </c>
+      <c r="I3" t="n">
+        <v>60</v>
+      </c>
+      <c r="J3" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>60</v>
+      </c>
+      <c r="D4" t="n">
+        <v>40</v>
+      </c>
+      <c r="E4" t="n">
+        <v>40</v>
+      </c>
+      <c r="F4" t="n">
+        <v>60</v>
+      </c>
+      <c r="G4" t="n">
+        <v>20</v>
+      </c>
+      <c r="H4" t="n">
+        <v>80</v>
+      </c>
+      <c r="I4" t="n">
+        <v>40</v>
+      </c>
+      <c r="J4" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>60</v>
+      </c>
+      <c r="D5" t="n">
+        <v>40</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" t="n">
+        <v>20</v>
+      </c>
+      <c r="H5" t="n">
+        <v>80</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>60</v>
+      </c>
+      <c r="D6" t="n">
+        <v>40</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>40</v>
+      </c>
+      <c r="D7" t="n">
+        <v>60</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>40</v>
+      </c>
+      <c r="D8" t="n">
+        <v>60</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>60</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>60</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>40</v>
+      </c>
+      <c r="D11" t="n">
+        <v>60</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D12" t="n">
+        <v>60</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>100</v>
       </c>
     </row>
@@ -10305,10 +9665,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -10467,10 +9827,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -10825,10 +10185,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -10949,28 +10309,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -11693,10 +11053,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -11817,28 +11177,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -12299,28 +11659,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -12781,28 +12141,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -13135,28 +12495,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -13489,28 +12849,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
@@ -13971,28 +13331,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
@@ -14453,16 +13813,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -14647,16 +14007,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -14841,28 +14201,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -15483,28 +14843,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -16221,28 +15581,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -16863,28 +16223,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -17345,28 +16705,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -18219,28 +17579,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -18605,28 +17965,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -18991,28 +18351,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -19313,28 +18673,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -19955,28 +19315,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -20277,28 +19637,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -20599,28 +19959,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -20921,28 +20281,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -21339,28 +20699,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -21757,28 +21117,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -22175,28 +21535,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -22593,22 +21953,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -22755,22 +22115,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -22917,28 +22277,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -23271,28 +22631,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -23913,28 +23273,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -24267,28 +23627,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -24621,28 +23981,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -24981,16 +24341,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -25143,16 +24503,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -25299,28 +24659,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -25589,28 +24949,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -25879,22 +25239,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -26073,22 +25433,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -26267,28 +25627,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -26909,28 +26269,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -27647,28 +27007,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -28289,10 +27649,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -28301,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -28643,10 +28003,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -28655,16 +28015,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -28997,28 +28357,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -29479,28 +28839,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -29961,28 +29321,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -30603,28 +29963,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -31245,28 +30605,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -31599,28 +30959,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -31953,28 +31313,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -32563,28 +31923,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -33301,28 +32661,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -33911,16 +33271,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -33929,10 +33289,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -34329,16 +33689,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -34347,10 +33707,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -34747,28 +34107,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -35005,28 +34365,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -35263,28 +34623,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -35873,28 +35233,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -36483,28 +35843,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -36997,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -37511,28 +36871,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -38025,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -38763,28 +38123,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -39277,16 +38637,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -39295,10 +38655,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -39535,16 +38895,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -39553,10 +38913,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -39793,16 +39153,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -39811,10 +39171,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -40051,16 +39411,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -40069,10 +39429,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -40321,10 +39681,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -40483,10 +39843,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -40639,16 +39999,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -40769,16 +40129,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -40893,22 +40253,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
